--- a/doc/data_tables.xlsx
+++ b/doc/data_tables.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="572">
   <si>
     <t>Data Table Definitions</t>
   </si>
@@ -1776,6 +1776,9 @@
     <t>Average air temperature derived from ambient humidity probe</t>
   </si>
   <si>
+    <t>Corrected description</t>
+  </si>
+  <si>
     <t>Possibly is only updated every half-hour</t>
   </si>
   <si>
@@ -1831,123 +1834,6 @@
   </si>
   <si>
     <t>See EC150 user manual for more details</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G_surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> energy_closure</t>
-  </si>
-  <si>
-    <t>Tsoil_Avg</t>
-  </si>
-  <si>
-    <t>tdr315_wc_Avg(1)</t>
-  </si>
-  <si>
-    <t>tdr315_wc_Avg(2)</t>
-  </si>
-  <si>
-    <t>tdr315_tmpr_Avg(1)</t>
-  </si>
-  <si>
-    <t>tdr315_tmpr_Avg(2)</t>
-  </si>
-  <si>
-    <t>tdr315_E_Avg(1)</t>
-  </si>
-  <si>
-    <t>tdr315_E_Avg(2)</t>
-  </si>
-  <si>
-    <t>tdr315_bulkEC_Avg(1)</t>
-  </si>
-  <si>
-    <t>uS/cm</t>
-  </si>
-  <si>
-    <t>tdr315_bulkEC_Avg(2)</t>
-  </si>
-  <si>
-    <t>tdr315_poreEC_Avg(1)</t>
-  </si>
-  <si>
-    <t>tdr315_poreEC_Avg(2)</t>
-  </si>
-  <si>
-    <t>shf_plate_avg</t>
-  </si>
-  <si>
-    <t>SHFP_1_SENS</t>
-  </si>
-  <si>
-    <t>uv/W/m^2</t>
-  </si>
-  <si>
-    <t>Average soil temperature for first TDR probe</t>
-  </si>
-  <si>
-    <t>Average soil temperature for first TCAV sensor</t>
-  </si>
-  <si>
-    <t>Average soil tempertaure for second TDR probe</t>
-  </si>
-  <si>
-    <t>Average soil permittivity for first TDR probe</t>
-  </si>
-  <si>
-    <t>Average soil permittivity for second TDR probe</t>
-  </si>
-  <si>
-    <t>Average volumetric water content for first TDR probe</t>
-  </si>
-  <si>
-    <t>Average volumetric water content for second TDR probe</t>
-  </si>
-  <si>
-    <t>Average soil pore water electrical conductivity for first TDR probe</t>
-  </si>
-  <si>
-    <t>Average soil pore water electrical conductivity for second TDR probe</t>
-  </si>
-  <si>
-    <t>Average soil bulk electrical conductivity for second TDR probe</t>
-  </si>
-  <si>
-    <t>Average soil bulk electrical conductivity for first TDR probe</t>
-  </si>
-  <si>
-    <t>Average soil heat flux for first sensor</t>
-  </si>
-  <si>
-    <t>Calibration coefficient used with first heat flux plate sensor</t>
-  </si>
-  <si>
-    <t>Fraction</t>
-  </si>
-  <si>
-    <t>Heat flux at the ground surface</t>
-  </si>
-  <si>
-    <t>The ratio of sensible and latent heat fluxes over surface heat flux plus net radiation</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>RECORD</t>
-  </si>
-  <si>
-    <t>Label Columns</t>
-  </si>
-  <si>
-    <t>Well-formatted timestamp in Pacific Standard Time (UTC-0800) unless otherwise noted</t>
-  </si>
-  <si>
-    <t>These two columns are present in all data files by default.</t>
-  </si>
-  <si>
-    <t>Sequential record counter value (skips indicate missing data)</t>
   </si>
 </sst>
 </file>
@@ -2453,16 +2339,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2586,74 +2471,50 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>608</v>
+      <c r="A22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="B23" t="s">
-        <v>604</v>
+        <v>274</v>
       </c>
       <c r="C23" t="s">
-        <v>607</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>605</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
-        <v>609</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C27" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C28" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A28" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2666,13 +2527,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,91 +2951,91 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>571</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>602</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>572</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>601</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>272</v>
       </c>
       <c r="D29" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D30" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>532</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D32" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -3183,68 +3044,71 @@
         <v>272</v>
       </c>
       <c r="D34" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>272</v>
       </c>
       <c r="D37" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>272</v>
       </c>
       <c r="D38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -3253,54 +3117,54 @@
         <v>272</v>
       </c>
       <c r="D39" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>272</v>
       </c>
       <c r="D40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>272</v>
       </c>
       <c r="D41" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>272</v>
       </c>
       <c r="D42" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -3309,12 +3173,12 @@
         <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -3323,12 +3187,12 @@
         <v>272</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -3337,12 +3201,12 @@
         <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -3351,110 +3215,110 @@
         <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
         <v>272</v>
       </c>
       <c r="D47" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
         <v>272</v>
       </c>
       <c r="D48" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
         <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>272</v>
       </c>
       <c r="D50" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
         <v>272</v>
       </c>
       <c r="D51" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
         <v>272</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
         <v>272</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -3463,734 +3327,701 @@
         <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
         <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
         <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
         <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
         <v>272</v>
       </c>
       <c r="D59" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
         <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>272</v>
       </c>
       <c r="D62" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
         <v>272</v>
       </c>
       <c r="D63" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>272</v>
+      </c>
+      <c r="D66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
         <v>83</v>
       </c>
-      <c r="C64" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D65" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
-      <c r="D66" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" t="s">
-        <v>272</v>
-      </c>
-      <c r="D68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" t="s">
-        <v>26</v>
-      </c>
       <c r="C69" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
         <v>272</v>
       </c>
       <c r="D70" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
         <v>272</v>
       </c>
       <c r="D71" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
         <v>272</v>
       </c>
       <c r="D72" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
         <v>272</v>
       </c>
       <c r="D74" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>565</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>566</v>
       </c>
       <c r="C75" t="s">
         <v>274</v>
       </c>
       <c r="D75" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>272</v>
       </c>
       <c r="D76" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B77" t="s">
-        <v>565</v>
-      </c>
-      <c r="C77" t="s">
+        <v>568</v>
+      </c>
+      <c r="D77" t="s">
+        <v>570</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
         <v>274</v>
       </c>
-      <c r="D77" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" t="s">
-        <v>272</v>
-      </c>
       <c r="D78" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>566</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>567</v>
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>274</v>
       </c>
       <c r="D79" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
         <v>274</v>
       </c>
       <c r="D80" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C81" t="s">
         <v>274</v>
       </c>
       <c r="D81" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D82" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>573</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>589</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>574</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>272</v>
       </c>
       <c r="D85" t="s">
-        <v>593</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>575</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>594</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>576</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>588</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>577</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
-        <v>590</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>578</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
         <v>272</v>
       </c>
       <c r="D89" t="s">
-        <v>591</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>579</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
         <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>592</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>580</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>581</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
         <v>272</v>
       </c>
       <c r="D91" t="s">
-        <v>598</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>582</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
-        <v>581</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
         <v>272</v>
       </c>
       <c r="D92" t="s">
-        <v>597</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>583</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>581</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
         <v>272</v>
       </c>
       <c r="D93" t="s">
-        <v>595</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>584</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>581</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
         <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>596</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>585</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
         <v>272</v>
       </c>
       <c r="D95" t="s">
-        <v>599</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>586</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>587</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" t="s">
-        <v>600</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>544</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
         <v>272</v>
       </c>
       <c r="D97" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
         <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
         <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
         <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
         <v>272</v>
       </c>
       <c r="D101" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="C102" t="s">
         <v>272</v>
       </c>
       <c r="D102" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C103" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D103" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B104" t="s">
         <v>114</v>
@@ -4199,40 +4030,40 @@
         <v>272</v>
       </c>
       <c r="D104" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
         <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C106" t="s">
         <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B107" t="s">
         <v>118</v>
@@ -4241,404 +4072,404 @@
         <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
         <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
         <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
         <v>272</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
         <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
         <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C113" t="s">
         <v>272</v>
       </c>
       <c r="D113" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
         <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
         <v>272</v>
       </c>
       <c r="D115" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
         <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
         <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
         <v>272</v>
       </c>
       <c r="D118" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
         <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
         <v>272</v>
       </c>
       <c r="D120" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>272</v>
       </c>
       <c r="D121" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
         <v>272</v>
       </c>
       <c r="D122" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C124" t="s">
         <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C125" t="s">
         <v>272</v>
       </c>
       <c r="D125" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C126" t="s">
         <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
         <v>272</v>
       </c>
       <c r="D128" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>272</v>
       </c>
       <c r="D129" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C130" t="s">
         <v>272</v>
       </c>
       <c r="D130" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C131" t="s">
         <v>272</v>
       </c>
       <c r="D131" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C132" t="s">
         <v>272</v>
       </c>
       <c r="D132" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
         <v>272</v>
       </c>
       <c r="D133" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
         <v>272</v>
       </c>
       <c r="D134" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>272</v>
       </c>
       <c r="D135" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -4647,250 +4478,250 @@
         <v>272</v>
       </c>
       <c r="D136" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C137" t="s">
         <v>272</v>
       </c>
       <c r="D137" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C138" t="s">
         <v>272</v>
       </c>
       <c r="D138" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B139" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C139" t="s">
         <v>272</v>
       </c>
       <c r="D139" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C140" t="s">
         <v>272</v>
       </c>
       <c r="D140" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
         <v>272</v>
       </c>
       <c r="D141" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C142" t="s">
         <v>272</v>
       </c>
       <c r="D142" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C143" t="s">
         <v>272</v>
       </c>
       <c r="D143" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C144" t="s">
         <v>272</v>
       </c>
       <c r="D144" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C145" t="s">
         <v>272</v>
       </c>
       <c r="D145" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C146" t="s">
         <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C147" t="s">
         <v>272</v>
       </c>
       <c r="D147" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C148" t="s">
         <v>272</v>
       </c>
       <c r="D148" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C149" t="s">
         <v>272</v>
       </c>
       <c r="D149" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
         <v>272</v>
       </c>
       <c r="D150" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C151" t="s">
         <v>272</v>
       </c>
       <c r="D151" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C152" t="s">
         <v>272</v>
       </c>
       <c r="D152" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C153" t="s">
         <v>272</v>
       </c>
       <c r="D153" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
         <v>33</v>
@@ -4899,12 +4730,12 @@
         <v>272</v>
       </c>
       <c r="D154" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B155" t="s">
         <v>33</v>
@@ -4913,12 +4744,12 @@
         <v>272</v>
       </c>
       <c r="D155" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B156" t="s">
         <v>33</v>
@@ -4927,12 +4758,12 @@
         <v>272</v>
       </c>
       <c r="D156" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B157" t="s">
         <v>33</v>
@@ -4941,12 +4772,12 @@
         <v>272</v>
       </c>
       <c r="D157" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B158" t="s">
         <v>33</v>
@@ -4955,12 +4786,12 @@
         <v>272</v>
       </c>
       <c r="D158" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
         <v>33</v>
@@ -4969,12 +4800,12 @@
         <v>272</v>
       </c>
       <c r="D159" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B160" t="s">
         <v>33</v>
@@ -4983,12 +4814,12 @@
         <v>272</v>
       </c>
       <c r="D160" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
@@ -4997,12 +4828,12 @@
         <v>272</v>
       </c>
       <c r="D161" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -5011,12 +4842,12 @@
         <v>272</v>
       </c>
       <c r="D162" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -5025,12 +4856,12 @@
         <v>272</v>
       </c>
       <c r="D163" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B164" t="s">
         <v>33</v>
@@ -5039,222 +4870,216 @@
         <v>272</v>
       </c>
       <c r="D164" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C165" t="s">
         <v>272</v>
       </c>
       <c r="D165" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B166" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C166" t="s">
         <v>272</v>
       </c>
       <c r="D166" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C167" t="s">
         <v>272</v>
       </c>
       <c r="D167" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B168" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>272</v>
       </c>
       <c r="D168" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B169" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>272</v>
       </c>
       <c r="D169" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>182</v>
-      </c>
-      <c r="B170" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="C170" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D170" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B171" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>272</v>
       </c>
       <c r="D171" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>272</v>
       </c>
       <c r="D172" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>272</v>
       </c>
       <c r="D173" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>272</v>
       </c>
       <c r="D174" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B175" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>272</v>
       </c>
       <c r="D175" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B176" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>272</v>
       </c>
       <c r="D176" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B177" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="C177" t="s">
         <v>272</v>
       </c>
       <c r="D177" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>190</v>
-      </c>
-      <c r="B178" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="C178" t="s">
         <v>272</v>
       </c>
       <c r="D178" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B179" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C179" t="s">
         <v>272</v>
       </c>
       <c r="D179" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B180" t="s">
         <v>68</v>
@@ -5263,40 +5088,40 @@
         <v>272</v>
       </c>
       <c r="D180" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B181" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>272</v>
       </c>
       <c r="D181" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B182" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>272</v>
       </c>
       <c r="D182" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
@@ -5305,12 +5130,12 @@
         <v>272</v>
       </c>
       <c r="D183" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -5319,442 +5144,238 @@
         <v>272</v>
       </c>
       <c r="D184" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>197</v>
+        <v>213</v>
+      </c>
+      <c r="B185" t="s">
+        <v>214</v>
       </c>
       <c r="C185" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D185" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>198</v>
-      </c>
-      <c r="B186" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="C186" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D186" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C187" t="s">
         <v>272</v>
       </c>
       <c r="D187" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="C188" t="s">
         <v>272</v>
       </c>
       <c r="D188" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
         <v>272</v>
       </c>
       <c r="D189" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="C190" t="s">
         <v>272</v>
       </c>
       <c r="D190" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="C191" t="s">
         <v>272</v>
       </c>
       <c r="D191" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="C192" t="s">
         <v>272</v>
       </c>
       <c r="D192" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>206</v>
+        <v>222</v>
+      </c>
+      <c r="B193" t="s">
+        <v>223</v>
       </c>
       <c r="C193" t="s">
         <v>272</v>
       </c>
       <c r="D193" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B194" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="C194" t="s">
         <v>272</v>
       </c>
       <c r="D194" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>208</v>
-      </c>
-      <c r="B195" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="C195" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D195" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C196" t="s">
         <v>272</v>
       </c>
       <c r="D196" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="C197" t="s">
         <v>272</v>
       </c>
       <c r="D197" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C198" t="s">
         <v>272</v>
       </c>
       <c r="D198" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="C199" t="s">
         <v>272</v>
       </c>
       <c r="D199" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C200" t="s">
         <v>272</v>
       </c>
       <c r="D200" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>234</v>
+      </c>
+      <c r="B201" t="s">
+        <v>214</v>
       </c>
       <c r="C201" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D201" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>216</v>
-      </c>
-      <c r="B202" t="s">
-        <v>214</v>
-      </c>
-      <c r="C202" t="s">
-        <v>272</v>
-      </c>
-      <c r="D202" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>217</v>
-      </c>
-      <c r="B203" t="s">
-        <v>205</v>
-      </c>
-      <c r="C203" t="s">
-        <v>272</v>
-      </c>
-      <c r="D203" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>218</v>
-      </c>
-      <c r="B204" t="s">
-        <v>205</v>
-      </c>
-      <c r="C204" t="s">
-        <v>272</v>
-      </c>
-      <c r="D204" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>219</v>
-      </c>
-      <c r="B205" t="s">
-        <v>205</v>
-      </c>
-      <c r="C205" t="s">
-        <v>272</v>
-      </c>
-      <c r="D205" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>220</v>
-      </c>
-      <c r="B206" t="s">
-        <v>94</v>
-      </c>
-      <c r="C206" t="s">
-        <v>272</v>
-      </c>
-      <c r="D206" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>221</v>
-      </c>
-      <c r="B207" t="s">
-        <v>94</v>
-      </c>
-      <c r="C207" t="s">
-        <v>272</v>
-      </c>
-      <c r="D207" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>222</v>
-      </c>
-      <c r="B208" t="s">
-        <v>223</v>
-      </c>
-      <c r="C208" t="s">
-        <v>272</v>
-      </c>
-      <c r="D208" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>224</v>
-      </c>
-      <c r="B209" t="s">
-        <v>225</v>
-      </c>
-      <c r="C209" t="s">
-        <v>272</v>
-      </c>
-      <c r="D209" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>226</v>
-      </c>
-      <c r="C210" t="s">
-        <v>274</v>
-      </c>
-      <c r="D210" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>227</v>
-      </c>
-      <c r="B211" t="s">
-        <v>24</v>
-      </c>
-      <c r="C211" t="s">
-        <v>272</v>
-      </c>
-      <c r="D211" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>228</v>
-      </c>
-      <c r="B212" t="s">
-        <v>229</v>
-      </c>
-      <c r="C212" t="s">
-        <v>272</v>
-      </c>
-      <c r="D212" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>230</v>
-      </c>
-      <c r="B213" t="s">
-        <v>33</v>
-      </c>
-      <c r="C213" t="s">
-        <v>272</v>
-      </c>
-      <c r="D213" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>231</v>
-      </c>
-      <c r="B214" t="s">
-        <v>232</v>
-      </c>
-      <c r="C214" t="s">
-        <v>272</v>
-      </c>
-      <c r="D214" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>233</v>
-      </c>
-      <c r="B215" t="s">
-        <v>232</v>
-      </c>
-      <c r="C215" t="s">
-        <v>272</v>
-      </c>
-      <c r="D215" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>234</v>
-      </c>
-      <c r="B216" t="s">
-        <v>214</v>
-      </c>
-      <c r="C216" t="s">
-        <v>272</v>
-      </c>
-      <c r="D216" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6265,7 +5886,7 @@
         <v>297</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6282,7 +5903,7 @@
         <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,7 +5920,7 @@
         <v>374</v>
       </c>
       <c r="F5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6316,7 +5937,7 @@
         <v>377</v>
       </c>
       <c r="F6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6333,10 +5954,10 @@
         <v>359</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6353,7 +5974,7 @@
         <v>396</v>
       </c>
       <c r="F8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6370,7 +5991,7 @@
         <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6387,7 +6008,7 @@
         <v>398</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6404,7 +6025,7 @@
         <v>517</v>
       </c>
       <c r="F11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6421,7 +6042,7 @@
         <v>516</v>
       </c>
       <c r="F12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6438,7 +6059,7 @@
         <v>376</v>
       </c>
       <c r="F13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6455,7 +6076,7 @@
         <v>363</v>
       </c>
       <c r="F14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6472,7 +6093,7 @@
         <v>397</v>
       </c>
       <c r="F15" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -6715,7 +6336,7 @@
         <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/doc/data_tables.xlsx
+++ b/doc/data_tables.xlsx
@@ -15,7 +15,8 @@
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Flux" sheetId="2" r:id="rId2"/>
     <sheet name="diagnostic" sheetId="5" r:id="rId3"/>
-    <sheet name="Time_Series" sheetId="4" r:id="rId4"/>
+    <sheet name="LTAR_Met" sheetId="6" r:id="rId4"/>
+    <sheet name="Time_Series" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="610">
   <si>
     <t>Data Table Definitions</t>
   </si>
@@ -1754,7 +1755,199 @@
     <t>New column</t>
   </si>
   <si>
-    <t>New column, see CRBasic Help or EC150 user manual for more details</t>
+    <t>LTAR_Met</t>
+  </si>
+  <si>
+    <t>15 MIN</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>LTAR Common Observatory Repository (CORe) data table</t>
+  </si>
+  <si>
+    <t>https://www.ars.usda.gov/ARSUserFiles/np211/LTAR%20Meteorology%20Concept%20of%20Operations%20FINAL%20150929.pdf</t>
+  </si>
+  <si>
+    <t>USDA ARS LTAR Common Observatory Meteorology Concept of Operations. Version 2.0, Sep 2015.</t>
+  </si>
+  <si>
+    <t>Average air temperature derived from ambient humidity probe</t>
+  </si>
+  <si>
+    <t>Possibly is only updated every half-hour</t>
+  </si>
+  <si>
+    <t>LTAR CORe variable</t>
+  </si>
+  <si>
+    <t>AirTemperature</t>
+  </si>
+  <si>
+    <t>WindSpeed</t>
+  </si>
+  <si>
+    <t>AirPressure</t>
+  </si>
+  <si>
+    <t>BatteryVoltage</t>
+  </si>
+  <si>
+    <t>WindDirection</t>
+  </si>
+  <si>
+    <t>RelativeHumidity</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>LoggerTemperature</t>
+  </si>
+  <si>
+    <t>(n/a)</t>
+  </si>
+  <si>
+    <t>NRLITE_SENS</t>
+  </si>
+  <si>
+    <t>uV/W/m^2</t>
+  </si>
+  <si>
+    <t>QUANTUM_SENS</t>
+  </si>
+  <si>
+    <t>uA/mmol/m^2/s</t>
+  </si>
+  <si>
+    <t>Unique sensitivity value of net radiometer (NR-Lite2)</t>
+  </si>
+  <si>
+    <t>Unique sensitivity value of quantum PAR sensor</t>
+  </si>
+  <si>
+    <t>See EC150 user manual for more details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G_surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> energy_closure</t>
+  </si>
+  <si>
+    <t>Tsoil_Avg</t>
+  </si>
+  <si>
+    <t>tdr315_wc_Avg(1)</t>
+  </si>
+  <si>
+    <t>tdr315_wc_Avg(2)</t>
+  </si>
+  <si>
+    <t>tdr315_tmpr_Avg(1)</t>
+  </si>
+  <si>
+    <t>tdr315_tmpr_Avg(2)</t>
+  </si>
+  <si>
+    <t>tdr315_E_Avg(1)</t>
+  </si>
+  <si>
+    <t>tdr315_E_Avg(2)</t>
+  </si>
+  <si>
+    <t>tdr315_bulkEC_Avg(1)</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>tdr315_bulkEC_Avg(2)</t>
+  </si>
+  <si>
+    <t>tdr315_poreEC_Avg(1)</t>
+  </si>
+  <si>
+    <t>tdr315_poreEC_Avg(2)</t>
+  </si>
+  <si>
+    <t>shf_plate_avg</t>
+  </si>
+  <si>
+    <t>SHFP_1_SENS</t>
+  </si>
+  <si>
+    <t>uv/W/m^2</t>
+  </si>
+  <si>
+    <t>Average soil temperature for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil temperature for first TCAV sensor</t>
+  </si>
+  <si>
+    <t>Average soil tempertaure for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil heat flux for first sensor</t>
+  </si>
+  <si>
+    <t>Calibration coefficient used with first heat flux plate sensor</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Heat flux at the ground surface</t>
+  </si>
+  <si>
+    <t>The ratio of sensible and latent heat fluxes over surface heat flux plus net radiation</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>RECORD</t>
+  </si>
+  <si>
+    <t>Label Columns</t>
+  </si>
+  <si>
+    <t>Well-formatted timestamp in Pacific Standard Time (UTC-0800) unless otherwise noted</t>
+  </si>
+  <si>
+    <t>These two columns are present in all data files by default.</t>
+  </si>
+  <si>
+    <t>Sequential record counter value (skips indicate missing data)</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +2148,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1974,6 +2167,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -2259,15 +2453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2320,104 +2515,150 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>296</v>
-      </c>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>297</v>
+      <c r="B15" s="15" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B23" t="s">
+        <v>604</v>
+      </c>
+      <c r="C23" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>605</v>
+      </c>
+      <c r="C24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
         <v>302</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C26" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>274</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C27" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>275</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C29" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>273</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C30" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2425,13 +2666,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E193" sqref="E193"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,91 +3090,91 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>571</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>572</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>601</v>
       </c>
       <c r="C29" t="s">
         <v>272</v>
       </c>
       <c r="D29" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D32" t="s">
-        <v>355</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>272</v>
       </c>
       <c r="D33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -2942,68 +3183,68 @@
         <v>272</v>
       </c>
       <c r="D34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
         <v>272</v>
       </c>
       <c r="D37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
         <v>272</v>
       </c>
       <c r="D38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -3012,54 +3253,54 @@
         <v>272</v>
       </c>
       <c r="D39" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
         <v>272</v>
       </c>
       <c r="D40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
         <v>272</v>
       </c>
       <c r="D41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>272</v>
       </c>
       <c r="D42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -3068,12 +3309,12 @@
         <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -3082,12 +3323,12 @@
         <v>272</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -3096,12 +3337,12 @@
         <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -3110,110 +3351,110 @@
         <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
         <v>272</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>272</v>
       </c>
       <c r="D48" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
         <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>272</v>
       </c>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
         <v>272</v>
       </c>
       <c r="D51" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
         <v>272</v>
       </c>
       <c r="D52" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>272</v>
       </c>
       <c r="D53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -3222,738 +3463,762 @@
         <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
         <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
         <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
         <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
         <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
         <v>272</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
         <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
         <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>272</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>272</v>
       </c>
       <c r="D63" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>42</v>
       </c>
-      <c r="C64" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C66" t="s">
+        <v>272</v>
+      </c>
+      <c r="D66" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>87</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>88</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>26</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C68" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>89</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="C67" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>90</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>24</v>
       </c>
-      <c r="C68" t="s">
-        <v>272</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>91</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="C69" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>92</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C70" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>93</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>94</v>
       </c>
-      <c r="C71" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C73" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>95</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>94</v>
       </c>
-      <c r="C72" t="s">
-        <v>272</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>96</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>97</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>274</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D75" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>98</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>15</v>
       </c>
-      <c r="C74" t="s">
-        <v>272</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C76" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>99</v>
-      </c>
-      <c r="B75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" t="s">
-        <v>272</v>
-      </c>
-      <c r="D75" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>274</v>
-      </c>
-      <c r="D76" t="s">
-        <v>399</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>564</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>565</v>
       </c>
       <c r="C77" t="s">
         <v>274</v>
       </c>
       <c r="D77" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>566</v>
+      </c>
+      <c r="B79" t="s">
+        <v>567</v>
+      </c>
+      <c r="D79" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" t="s">
         <v>400</v>
       </c>
-      <c r="E77" s="16" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>573</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" t="s">
+        <v>589</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>574</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" t="s">
+        <v>593</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>575</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" t="s">
+        <v>594</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>576</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" t="s">
+        <v>588</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>577</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" t="s">
+        <v>590</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>578</v>
+      </c>
+      <c r="B89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" t="s">
+        <v>591</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>579</v>
+      </c>
+      <c r="B90" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90" t="s">
+        <v>592</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>580</v>
+      </c>
+      <c r="B91" t="s">
+        <v>581</v>
+      </c>
+      <c r="C91" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" t="s">
+        <v>598</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>582</v>
+      </c>
+      <c r="B92" t="s">
+        <v>581</v>
+      </c>
+      <c r="C92" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" t="s">
+        <v>597</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>583</v>
+      </c>
+      <c r="B93" t="s">
+        <v>581</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" t="s">
+        <v>595</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>584</v>
+      </c>
+      <c r="B94" t="s">
+        <v>581</v>
+      </c>
+      <c r="C94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" t="s">
+        <v>596</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>585</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" t="s">
+        <v>599</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>586</v>
+      </c>
+      <c r="B96" t="s">
+        <v>587</v>
+      </c>
+      <c r="C96" t="s">
         <v>274</v>
       </c>
-      <c r="D78" t="s">
-        <v>401</v>
-      </c>
-      <c r="E78" s="16" t="s">
+      <c r="D96" t="s">
+        <v>600</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" t="s">
-        <v>274</v>
-      </c>
-      <c r="D79" t="s">
-        <v>419</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>272</v>
-      </c>
-      <c r="D80" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" t="s">
-        <v>272</v>
-      </c>
-      <c r="D81" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>272</v>
-      </c>
-      <c r="D82" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>108</v>
-      </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>272</v>
-      </c>
-      <c r="D83" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>272</v>
-      </c>
-      <c r="D84" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" t="s">
-        <v>275</v>
-      </c>
-      <c r="D86" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" t="s">
-        <v>272</v>
-      </c>
-      <c r="D88" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>116</v>
-      </c>
-      <c r="B89" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" t="s">
-        <v>272</v>
-      </c>
-      <c r="D89" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" t="s">
-        <v>272</v>
-      </c>
-      <c r="D90" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>119</v>
-      </c>
-      <c r="B91" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" t="s">
-        <v>272</v>
-      </c>
-      <c r="D91" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" t="s">
-        <v>272</v>
-      </c>
-      <c r="D92" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
-        <v>272</v>
-      </c>
-      <c r="D93" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>272</v>
-      </c>
-      <c r="D94" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>272</v>
-      </c>
-      <c r="D95" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
-        <v>272</v>
-      </c>
-      <c r="D96" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>272</v>
       </c>
       <c r="D97" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C98" t="s">
         <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>272</v>
       </c>
       <c r="D101" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>272</v>
       </c>
       <c r="D102" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
         <v>272</v>
       </c>
       <c r="D104" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s">
         <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
         <v>114</v>
@@ -3962,26 +4227,26 @@
         <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C107" t="s">
         <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
         <v>118</v>
@@ -3990,12 +4255,12 @@
         <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
         <v>118</v>
@@ -4004,628 +4269,628 @@
         <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
         <v>272</v>
       </c>
       <c r="D110" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
         <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
         <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
         <v>272</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
         <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
         <v>272</v>
       </c>
       <c r="D115" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
         <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C117" t="s">
         <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C118" t="s">
         <v>272</v>
       </c>
       <c r="D118" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
         <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C120" t="s">
         <v>272</v>
       </c>
       <c r="D120" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C121" t="s">
         <v>272</v>
       </c>
       <c r="D121" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C122" t="s">
         <v>272</v>
       </c>
       <c r="D122" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C123" t="s">
         <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C124" t="s">
         <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C125" t="s">
         <v>272</v>
       </c>
       <c r="D125" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C126" t="s">
         <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
         <v>272</v>
       </c>
       <c r="D128" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C129" t="s">
         <v>272</v>
       </c>
       <c r="D129" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C130" t="s">
         <v>272</v>
       </c>
       <c r="D130" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C131" t="s">
         <v>272</v>
       </c>
       <c r="D131" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C132" t="s">
         <v>272</v>
       </c>
       <c r="D132" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C133" t="s">
         <v>272</v>
       </c>
       <c r="D133" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C134" t="s">
         <v>272</v>
       </c>
       <c r="D134" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
         <v>272</v>
       </c>
       <c r="D135" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
         <v>272</v>
       </c>
       <c r="D136" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
         <v>272</v>
       </c>
       <c r="D137" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
         <v>272</v>
       </c>
       <c r="D138" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C139" t="s">
         <v>272</v>
       </c>
       <c r="D139" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C140" t="s">
         <v>272</v>
       </c>
       <c r="D140" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C141" t="s">
         <v>272</v>
       </c>
       <c r="D141" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>272</v>
       </c>
       <c r="D142" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B143" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
         <v>272</v>
       </c>
       <c r="D143" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
         <v>272</v>
       </c>
       <c r="D144" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s">
         <v>272</v>
       </c>
       <c r="D145" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
         <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B147" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
         <v>272</v>
       </c>
       <c r="D147" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
         <v>272</v>
       </c>
       <c r="D148" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
         <v>272</v>
       </c>
       <c r="D149" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B150" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>272</v>
       </c>
       <c r="D150" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
         <v>272</v>
       </c>
       <c r="D151" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B152" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
         <v>272</v>
       </c>
       <c r="D152" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C153" t="s">
         <v>272</v>
       </c>
       <c r="D153" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B154" t="s">
         <v>33</v>
@@ -4634,12 +4899,12 @@
         <v>272</v>
       </c>
       <c r="D154" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B155" t="s">
         <v>33</v>
@@ -4648,12 +4913,12 @@
         <v>272</v>
       </c>
       <c r="D155" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B156" t="s">
         <v>33</v>
@@ -4662,12 +4927,12 @@
         <v>272</v>
       </c>
       <c r="D156" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B157" t="s">
         <v>33</v>
@@ -4676,12 +4941,12 @@
         <v>272</v>
       </c>
       <c r="D157" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B158" t="s">
         <v>33</v>
@@ -4690,12 +4955,12 @@
         <v>272</v>
       </c>
       <c r="D158" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B159" t="s">
         <v>33</v>
@@ -4704,12 +4969,12 @@
         <v>272</v>
       </c>
       <c r="D159" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B160" t="s">
         <v>33</v>
@@ -4718,12 +4983,12 @@
         <v>272</v>
       </c>
       <c r="D160" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
@@ -4732,12 +4997,12 @@
         <v>272</v>
       </c>
       <c r="D161" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -4746,515 +5011,750 @@
         <v>272</v>
       </c>
       <c r="D162" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B163" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C163" t="s">
         <v>272</v>
       </c>
       <c r="D163" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B164" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C164" t="s">
         <v>272</v>
       </c>
       <c r="D164" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B165" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C165" t="s">
         <v>272</v>
       </c>
       <c r="D165" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C166" t="s">
         <v>272</v>
       </c>
       <c r="D166" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C167" t="s">
         <v>272</v>
       </c>
       <c r="D167" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>197</v>
+        <v>180</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
       </c>
       <c r="C168" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D168" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C169" t="s">
         <v>272</v>
       </c>
       <c r="D169" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C170" t="s">
         <v>272</v>
       </c>
       <c r="D170" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C171" t="s">
         <v>272</v>
       </c>
       <c r="D171" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C172" t="s">
         <v>272</v>
       </c>
       <c r="D172" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C173" t="s">
         <v>272</v>
       </c>
       <c r="D173" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C174" t="s">
         <v>272</v>
       </c>
       <c r="D174" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="C175" t="s">
         <v>272</v>
       </c>
       <c r="D175" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>206</v>
+        <v>188</v>
+      </c>
+      <c r="B176" t="s">
+        <v>33</v>
       </c>
       <c r="C176" t="s">
         <v>272</v>
       </c>
       <c r="D176" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B177" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C177" t="s">
         <v>272</v>
       </c>
       <c r="D177" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B178" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C178" t="s">
         <v>272</v>
       </c>
       <c r="D178" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C179" t="s">
         <v>272</v>
       </c>
       <c r="D179" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C180" t="s">
         <v>272</v>
       </c>
       <c r="D180" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C181" t="s">
         <v>272</v>
       </c>
       <c r="D181" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C182" t="s">
         <v>272</v>
       </c>
       <c r="D182" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>272</v>
       </c>
       <c r="D183" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>215</v>
+        <v>196</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D184" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>216</v>
-      </c>
-      <c r="B185" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C185" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D185" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B186" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>272</v>
       </c>
       <c r="D186" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B187" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>272</v>
       </c>
       <c r="D187" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B188" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>272</v>
       </c>
       <c r="D188" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B189" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>272</v>
       </c>
       <c r="D189" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B190" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>272</v>
       </c>
       <c r="D190" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B191" t="s">
-        <v>223</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>272</v>
       </c>
       <c r="D191" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" t="s">
+        <v>205</v>
+      </c>
+      <c r="C192" t="s">
+        <v>272</v>
+      </c>
+      <c r="D192" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>206</v>
+      </c>
+      <c r="C193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D193" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>207</v>
+      </c>
+      <c r="B194" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194" t="s">
+        <v>272</v>
+      </c>
+      <c r="D194" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>208</v>
+      </c>
+      <c r="B195" t="s">
+        <v>68</v>
+      </c>
+      <c r="C195" t="s">
+        <v>272</v>
+      </c>
+      <c r="D195" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>209</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>272</v>
+      </c>
+      <c r="D196" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>210</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>272</v>
+      </c>
+      <c r="D197" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>211</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>272</v>
+      </c>
+      <c r="D198" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>212</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>272</v>
+      </c>
+      <c r="D199" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" t="s">
+        <v>214</v>
+      </c>
+      <c r="C200" t="s">
+        <v>272</v>
+      </c>
+      <c r="D200" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>215</v>
+      </c>
+      <c r="C201" t="s">
+        <v>273</v>
+      </c>
+      <c r="D201" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202" t="s">
+        <v>214</v>
+      </c>
+      <c r="C202" t="s">
+        <v>272</v>
+      </c>
+      <c r="D202" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>217</v>
+      </c>
+      <c r="B203" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" t="s">
+        <v>272</v>
+      </c>
+      <c r="D203" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" t="s">
+        <v>272</v>
+      </c>
+      <c r="D204" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>219</v>
+      </c>
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" t="s">
+        <v>272</v>
+      </c>
+      <c r="D205" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>220</v>
+      </c>
+      <c r="B206" t="s">
+        <v>94</v>
+      </c>
+      <c r="C206" t="s">
+        <v>272</v>
+      </c>
+      <c r="D206" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>221</v>
+      </c>
+      <c r="B207" t="s">
+        <v>94</v>
+      </c>
+      <c r="C207" t="s">
+        <v>272</v>
+      </c>
+      <c r="D207" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>222</v>
+      </c>
+      <c r="B208" t="s">
+        <v>223</v>
+      </c>
+      <c r="C208" t="s">
+        <v>272</v>
+      </c>
+      <c r="D208" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>224</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B209" t="s">
         <v>225</v>
       </c>
-      <c r="C192" t="s">
-        <v>272</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="C209" t="s">
+        <v>272</v>
+      </c>
+      <c r="D209" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>226</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C210" t="s">
         <v>274</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D210" t="s">
         <v>515</v>
       </c>
-      <c r="E193" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>227</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B211" t="s">
         <v>24</v>
       </c>
-      <c r="C194" t="s">
-        <v>272</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="C211" t="s">
+        <v>272</v>
+      </c>
+      <c r="D211" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>228</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B212" t="s">
         <v>229</v>
       </c>
-      <c r="C195" t="s">
-        <v>272</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="C212" t="s">
+        <v>272</v>
+      </c>
+      <c r="D212" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>230</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B213" t="s">
         <v>33</v>
       </c>
-      <c r="C196" t="s">
-        <v>272</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="C213" t="s">
+        <v>272</v>
+      </c>
+      <c r="D213" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>231</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B214" t="s">
         <v>232</v>
       </c>
-      <c r="C197" t="s">
-        <v>272</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="C214" t="s">
+        <v>272</v>
+      </c>
+      <c r="D214" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>233</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B215" t="s">
         <v>232</v>
       </c>
-      <c r="C198" t="s">
-        <v>272</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="C215" t="s">
+        <v>272</v>
+      </c>
+      <c r="D215" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>234</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B216" t="s">
         <v>214</v>
       </c>
-      <c r="C199" t="s">
-        <v>272</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="C216" t="s">
+        <v>272</v>
+      </c>
+      <c r="D216" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5715,6 +6215,274 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5946,8 +6714,8 @@
       <c r="D16" t="s">
         <v>315</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>545</v>
+      <c r="E16" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/doc/data_tables.xlsx
+++ b/doc/data_tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="670">
   <si>
     <t>Data Table Definitions</t>
   </si>
@@ -1776,9 +1776,6 @@
     <t>Average air temperature derived from ambient humidity probe</t>
   </si>
   <si>
-    <t>Corrected description</t>
-  </si>
-  <si>
     <t>Possibly is only updated every half-hour</t>
   </si>
   <si>
@@ -1834,6 +1831,303 @@
   </si>
   <si>
     <t>See EC150 user manual for more details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G_surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> energy_closure</t>
+  </si>
+  <si>
+    <t>Tsoil_Avg</t>
+  </si>
+  <si>
+    <t>tdr315_wc_Avg(1)</t>
+  </si>
+  <si>
+    <t>tdr315_wc_Avg(2)</t>
+  </si>
+  <si>
+    <t>tdr315_tmpr_Avg(1)</t>
+  </si>
+  <si>
+    <t>tdr315_tmpr_Avg(2)</t>
+  </si>
+  <si>
+    <t>tdr315_E_Avg(1)</t>
+  </si>
+  <si>
+    <t>tdr315_E_Avg(2)</t>
+  </si>
+  <si>
+    <t>tdr315_bulkEC_Avg(1)</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>tdr315_bulkEC_Avg(2)</t>
+  </si>
+  <si>
+    <t>tdr315_poreEC_Avg(1)</t>
+  </si>
+  <si>
+    <t>tdr315_poreEC_Avg(2)</t>
+  </si>
+  <si>
+    <t>shf_plate_avg</t>
+  </si>
+  <si>
+    <t>SHFP_1_SENS</t>
+  </si>
+  <si>
+    <t>uv/W/m^2</t>
+  </si>
+  <si>
+    <t>Average soil temperature for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil temperature for first TCAV sensor</t>
+  </si>
+  <si>
+    <t>Average soil tempertaure for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for second TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for first TDR probe</t>
+  </si>
+  <si>
+    <t>Average soil heat flux for first sensor</t>
+  </si>
+  <si>
+    <t>Calibration coefficient used with first heat flux plate sensor</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Heat flux at the ground surface</t>
+  </si>
+  <si>
+    <t>The ratio of sensible and latent heat fluxes over surface heat flux plus net radiation</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>RECORD</t>
+  </si>
+  <si>
+    <t>Label Columns</t>
+  </si>
+  <si>
+    <t>Well-formatted timestamp in Pacific Standard Time (UTC-0800) unless otherwise noted</t>
+  </si>
+  <si>
+    <t>These two columns are present in all data files by default.</t>
+  </si>
+  <si>
+    <t>Sequential record counter value (skips indicate missing data)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_wc_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_wc_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_wc_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_wc_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_wc_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_wc_Avg(6)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_tmpr_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_tmpr_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_tmpr_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_tmpr_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_tmpr_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_tmpr_Avg(6)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_E_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_E_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_E_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_E_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_E_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_E_Avg(6)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_bulkEC_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_bulkEC_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_bulkEC_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_bulkEC_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_bulkEC_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_bulkEC_Avg(6)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_poreEC_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_poreEC_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_poreEC_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_poreEC_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_poreEC_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr315_poreEC_Avg(6)</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for profile TDR sensor in first position</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for profile TDR sensor in second position</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for profile TDR sensor in third position</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for profile TDR sensor in fourth position</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for profile TDR sensor in fifth position</t>
+  </si>
+  <si>
+    <t>Average volumetric water content for profile TDR sensor in sixth position</t>
+  </si>
+  <si>
+    <t>Average soil temperature for profile TDR sensor in first position</t>
+  </si>
+  <si>
+    <t>Average soil temperature for profile TDR sensor in second position</t>
+  </si>
+  <si>
+    <t>Average soil temperature for profile TDR sensor in third position</t>
+  </si>
+  <si>
+    <t>Average soil temperature for profile TDR sensor in fourth position</t>
+  </si>
+  <si>
+    <t>Average soil temperature for profile TDR sensor in fifth position</t>
+  </si>
+  <si>
+    <t>Average soil temperature for profile TDR sensor in sixth position</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for profile TDR sensor in first position</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for profile TDR sensor in second position</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for profile TDR sensor in third position</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for profile TDR sensor in fourth position</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for profile TDR sensor in fifth position</t>
+  </si>
+  <si>
+    <t>Average soil permittivity for profile TDR sensor in sixth position</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for profile TDR sensor in first position</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for profile TDR sensor in second position</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for profile TDR sensor in third position</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for profile TDR sensor in fourth position</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for profile TDR sensor in fifth position</t>
+  </si>
+  <si>
+    <t>Average soil bulk electrical conductivity for profile TDR sensor in sixth position</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for profile TDR sensor in first position</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for profile TDR sensor in second position</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for profile TDR sensor in third position</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for profile TDR sensor in fourth position</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for profile TDR sensor in fifth position</t>
+  </si>
+  <si>
+    <t>Average soil pore water electrical conductivity for profile TDR sensor in sixth position</t>
   </si>
 </sst>
 </file>
@@ -2339,15 +2633,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2471,50 +2766,74 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" t="s">
-        <v>522</v>
+      <c r="A22" s="3" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>604</v>
       </c>
       <c r="C23" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>272</v>
+        <v>605</v>
       </c>
       <c r="C24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>275</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>273</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2527,13 +2846,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,91 +3270,91 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>571</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>572</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>601</v>
       </c>
       <c r="C29" t="s">
         <v>272</v>
       </c>
       <c r="D29" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -3044,71 +3363,68 @@
         <v>272</v>
       </c>
       <c r="D34" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" t="s">
         <v>551</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="C36" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>272</v>
-      </c>
-      <c r="D38" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -3117,54 +3433,54 @@
         <v>272</v>
       </c>
       <c r="D39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
-        <v>272</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>272</v>
-      </c>
-      <c r="D41" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -3173,12 +3489,12 @@
         <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -3187,12 +3503,12 @@
         <v>272</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -3201,12 +3517,12 @@
         <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -3215,110 +3531,110 @@
         <v>272</v>
       </c>
       <c r="D46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>272</v>
-      </c>
-      <c r="D47" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D48" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
         <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>272</v>
       </c>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
         <v>272</v>
       </c>
       <c r="D51" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
         <v>272</v>
       </c>
       <c r="D52" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>272</v>
       </c>
       <c r="D53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -3327,1443 +3643,1527 @@
         <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
         <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
         <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
         <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
         <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
         <v>272</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
         <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
         <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>272</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>272</v>
       </c>
       <c r="D63" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>42</v>
       </c>
-      <c r="C64" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C66" t="s">
+        <v>272</v>
+      </c>
+      <c r="D66" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>87</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C67" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>88</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>26</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C68" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>89</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="C67" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>90</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>24</v>
       </c>
-      <c r="C68" t="s">
-        <v>272</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>91</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="C69" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>92</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C70" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>93</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>94</v>
       </c>
-      <c r="C71" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C73" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>95</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>94</v>
       </c>
-      <c r="C72" t="s">
-        <v>272</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>96</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>97</v>
-      </c>
-      <c r="C73" t="s">
-        <v>274</v>
-      </c>
-      <c r="D73" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
-        <v>272</v>
-      </c>
-      <c r="D74" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>565</v>
-      </c>
-      <c r="B75" t="s">
-        <v>566</v>
       </c>
       <c r="C75" t="s">
         <v>274</v>
       </c>
       <c r="D75" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>564</v>
+      </c>
+      <c r="B77" t="s">
+        <v>565</v>
+      </c>
+      <c r="C77" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>566</v>
+      </c>
+      <c r="B79" t="s">
+        <v>567</v>
+      </c>
+      <c r="D79" t="s">
         <v>569</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>567</v>
-      </c>
-      <c r="B77" t="s">
-        <v>568</v>
-      </c>
-      <c r="D77" t="s">
-        <v>570</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>101</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>274</v>
-      </c>
-      <c r="D78" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>102</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>274</v>
-      </c>
-      <c r="D79" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" t="s">
-        <v>68</v>
       </c>
       <c r="C80" t="s">
         <v>274</v>
       </c>
       <c r="D80" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>274</v>
       </c>
       <c r="D81" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D82" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>573</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
         <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>404</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>574</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
         <v>272</v>
       </c>
       <c r="D85" t="s">
-        <v>405</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>575</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
         <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>406</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>576</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
         <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>418</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>577</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>578</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
         <v>272</v>
       </c>
       <c r="D89" t="s">
-        <v>407</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>579</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
         <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>408</v>
+        <v>592</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>580</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>581</v>
       </c>
       <c r="C91" t="s">
         <v>272</v>
       </c>
       <c r="D91" t="s">
-        <v>409</v>
+        <v>598</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>582</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>581</v>
       </c>
       <c r="C92" t="s">
         <v>272</v>
       </c>
       <c r="D92" t="s">
-        <v>410</v>
+        <v>597</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>583</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>581</v>
       </c>
       <c r="C93" t="s">
         <v>272</v>
       </c>
       <c r="D93" t="s">
-        <v>411</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>584</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>581</v>
       </c>
       <c r="C94" t="s">
         <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>412</v>
+        <v>596</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>585</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
         <v>272</v>
       </c>
       <c r="D95" t="s">
-        <v>413</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>586</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>587</v>
       </c>
       <c r="C96" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>610</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s">
         <v>272</v>
       </c>
       <c r="D97" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>611</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C98" t="s">
         <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>612</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C99" t="s">
         <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>613</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s">
         <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>614</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
         <v>272</v>
       </c>
       <c r="D101" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>615</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
         <v>272</v>
       </c>
       <c r="D102" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>616</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C103" t="s">
         <v>272</v>
       </c>
       <c r="D103" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>617</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
         <v>272</v>
       </c>
       <c r="D104" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>618</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C105" t="s">
         <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>619</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
         <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>620</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
         <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>621</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
         <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>622</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="C109" t="s">
         <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>623</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C110" t="s">
         <v>272</v>
       </c>
       <c r="D110" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>624</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s">
         <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>625</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="C112" t="s">
         <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>626</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="C113" t="s">
         <v>272</v>
       </c>
       <c r="D113" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>627</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
         <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>628</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>581</v>
       </c>
       <c r="C115" t="s">
         <v>272</v>
       </c>
       <c r="D115" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>629</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>581</v>
       </c>
       <c r="C116" t="s">
         <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>630</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>581</v>
       </c>
       <c r="C117" t="s">
         <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>631</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>581</v>
       </c>
       <c r="C118" t="s">
         <v>272</v>
       </c>
       <c r="D118" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>632</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>581</v>
       </c>
       <c r="C119" t="s">
         <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>633</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>581</v>
       </c>
       <c r="C120" t="s">
         <v>272</v>
       </c>
       <c r="D120" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>634</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>581</v>
       </c>
       <c r="C121" t="s">
         <v>272</v>
       </c>
       <c r="D121" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>635</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>581</v>
       </c>
       <c r="C122" t="s">
         <v>272</v>
       </c>
       <c r="D122" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>636</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>581</v>
       </c>
       <c r="C123" t="s">
         <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>637</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>581</v>
       </c>
       <c r="C124" t="s">
         <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>638</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
+        <v>581</v>
       </c>
       <c r="C125" t="s">
         <v>272</v>
       </c>
       <c r="D125" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>639</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>581</v>
       </c>
       <c r="C126" t="s">
         <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s">
         <v>272</v>
       </c>
       <c r="D128" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>272</v>
       </c>
       <c r="D129" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>272</v>
       </c>
       <c r="D130" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>272</v>
       </c>
       <c r="D131" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>272</v>
       </c>
       <c r="D132" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D133" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B134" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C134" t="s">
         <v>272</v>
       </c>
       <c r="D134" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C135" t="s">
         <v>272</v>
       </c>
       <c r="D135" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C136" t="s">
         <v>272</v>
       </c>
       <c r="D136" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C137" t="s">
         <v>272</v>
       </c>
       <c r="D137" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B138" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C138" t="s">
         <v>272</v>
       </c>
       <c r="D138" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C139" t="s">
         <v>272</v>
       </c>
       <c r="D139" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
         <v>272</v>
       </c>
       <c r="D140" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
         <v>272</v>
       </c>
       <c r="D141" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
         <v>272</v>
       </c>
       <c r="D142" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
         <v>272</v>
       </c>
       <c r="D143" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
         <v>272</v>
       </c>
       <c r="D144" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
         <v>272</v>
       </c>
       <c r="D145" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
         <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B147" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C147" t="s">
         <v>272</v>
       </c>
       <c r="D147" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C148" t="s">
         <v>272</v>
       </c>
       <c r="D148" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C149" t="s">
         <v>272</v>
       </c>
       <c r="D149" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B150" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C150" t="s">
         <v>272</v>
       </c>
       <c r="D150" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C151" t="s">
         <v>272</v>
       </c>
       <c r="D151" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B152" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C152" t="s">
         <v>272</v>
       </c>
       <c r="D152" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C153" t="s">
         <v>272</v>
       </c>
       <c r="D153" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C154" t="s">
         <v>272</v>
       </c>
       <c r="D154" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B155" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C155" t="s">
         <v>272</v>
       </c>
       <c r="D155" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C156" t="s">
         <v>272</v>
       </c>
       <c r="D156" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B157" t="s">
         <v>33</v>
@@ -4772,12 +5172,12 @@
         <v>272</v>
       </c>
       <c r="D157" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B158" t="s">
         <v>33</v>
@@ -4786,12 +5186,12 @@
         <v>272</v>
       </c>
       <c r="D158" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="B159" t="s">
         <v>33</v>
@@ -4800,12 +5200,12 @@
         <v>272</v>
       </c>
       <c r="D159" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B160" t="s">
         <v>33</v>
@@ -4814,12 +5214,12 @@
         <v>272</v>
       </c>
       <c r="D160" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
@@ -4828,12 +5228,12 @@
         <v>272</v>
       </c>
       <c r="D161" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -4842,12 +5242,12 @@
         <v>272</v>
       </c>
       <c r="D162" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -4856,12 +5256,12 @@
         <v>272</v>
       </c>
       <c r="D163" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="B164" t="s">
         <v>33</v>
@@ -4870,462 +5270,474 @@
         <v>272</v>
       </c>
       <c r="D164" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B165" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C165" t="s">
         <v>272</v>
       </c>
       <c r="D165" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="B166" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
         <v>272</v>
       </c>
       <c r="D166" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="B167" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s">
         <v>272</v>
       </c>
       <c r="D167" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
         <v>272</v>
       </c>
       <c r="D168" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C169" t="s">
         <v>272</v>
       </c>
       <c r="D169" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>152</v>
+      </c>
+      <c r="B170" t="s">
+        <v>151</v>
       </c>
       <c r="C170" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D170" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C171" t="s">
         <v>272</v>
       </c>
       <c r="D171" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
         <v>272</v>
       </c>
       <c r="D172" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
         <v>272</v>
       </c>
       <c r="D173" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
         <v>272</v>
       </c>
       <c r="D174" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C175" t="s">
         <v>272</v>
       </c>
       <c r="D175" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C176" t="s">
         <v>272</v>
       </c>
       <c r="D176" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="C177" t="s">
         <v>272</v>
       </c>
       <c r="D177" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>160</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
       </c>
       <c r="C178" t="s">
         <v>272</v>
       </c>
       <c r="D178" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="B179" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C179" t="s">
         <v>272</v>
       </c>
       <c r="D179" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="B180" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
         <v>272</v>
       </c>
       <c r="D180" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
         <v>272</v>
       </c>
       <c r="D181" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C182" t="s">
         <v>272</v>
       </c>
       <c r="D182" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C183" t="s">
         <v>272</v>
       </c>
       <c r="D183" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C184" t="s">
         <v>272</v>
       </c>
       <c r="D184" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="B185" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="C185" t="s">
         <v>272</v>
       </c>
       <c r="D185" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>168</v>
+      </c>
+      <c r="B186" t="s">
+        <v>33</v>
       </c>
       <c r="C186" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D186" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="B187" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="C187" t="s">
         <v>272</v>
       </c>
       <c r="D187" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="B188" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="C188" t="s">
         <v>272</v>
       </c>
       <c r="D188" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="B189" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="C189" t="s">
         <v>272</v>
       </c>
       <c r="D189" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="B190" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="C190" t="s">
         <v>272</v>
       </c>
       <c r="D190" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="B191" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C191" t="s">
         <v>272</v>
       </c>
       <c r="D191" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="B192" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C192" t="s">
         <v>272</v>
       </c>
       <c r="D192" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="B193" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="C193" t="s">
         <v>272</v>
       </c>
       <c r="D193" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B194" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="C194" t="s">
         <v>272</v>
       </c>
       <c r="D194" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>226</v>
+        <v>177</v>
+      </c>
+      <c r="B195" t="s">
+        <v>33</v>
       </c>
       <c r="C195" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D195" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C196" t="s">
         <v>272</v>
       </c>
       <c r="D196" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="B197" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="C197" t="s">
         <v>272</v>
       </c>
       <c r="D197" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="B198" t="s">
         <v>33</v>
@@ -5334,48 +5746,666 @@
         <v>272</v>
       </c>
       <c r="D198" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="C199" t="s">
         <v>272</v>
       </c>
       <c r="D199" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="B200" t="s">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="C200" t="s">
         <v>272</v>
       </c>
       <c r="D200" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>183</v>
+      </c>
+      <c r="B201" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" t="s">
+        <v>272</v>
+      </c>
+      <c r="D201" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>184</v>
+      </c>
+      <c r="B202" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" t="s">
+        <v>272</v>
+      </c>
+      <c r="D202" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>185</v>
+      </c>
+      <c r="B203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" t="s">
+        <v>272</v>
+      </c>
+      <c r="D203" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>186</v>
+      </c>
+      <c r="B204" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" t="s">
+        <v>272</v>
+      </c>
+      <c r="D204" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>187</v>
+      </c>
+      <c r="B205" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" t="s">
+        <v>272</v>
+      </c>
+      <c r="D205" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>188</v>
+      </c>
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" t="s">
+        <v>272</v>
+      </c>
+      <c r="D206" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>189</v>
+      </c>
+      <c r="B207" t="s">
+        <v>33</v>
+      </c>
+      <c r="C207" t="s">
+        <v>272</v>
+      </c>
+      <c r="D207" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>190</v>
+      </c>
+      <c r="B208" t="s">
+        <v>33</v>
+      </c>
+      <c r="C208" t="s">
+        <v>272</v>
+      </c>
+      <c r="D208" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>191</v>
+      </c>
+      <c r="B209" t="s">
+        <v>33</v>
+      </c>
+      <c r="C209" t="s">
+        <v>272</v>
+      </c>
+      <c r="D209" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>192</v>
+      </c>
+      <c r="B210" t="s">
+        <v>68</v>
+      </c>
+      <c r="C210" t="s">
+        <v>272</v>
+      </c>
+      <c r="D210" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>193</v>
+      </c>
+      <c r="B211" t="s">
+        <v>68</v>
+      </c>
+      <c r="C211" t="s">
+        <v>272</v>
+      </c>
+      <c r="D211" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>194</v>
+      </c>
+      <c r="B212" t="s">
+        <v>68</v>
+      </c>
+      <c r="C212" t="s">
+        <v>272</v>
+      </c>
+      <c r="D212" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>195</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>272</v>
+      </c>
+      <c r="D213" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>196</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>272</v>
+      </c>
+      <c r="D214" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>197</v>
+      </c>
+      <c r="C215" t="s">
+        <v>275</v>
+      </c>
+      <c r="D215" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>198</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>272</v>
+      </c>
+      <c r="D216" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>199</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>272</v>
+      </c>
+      <c r="D217" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>272</v>
+      </c>
+      <c r="D218" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>201</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>272</v>
+      </c>
+      <c r="D219" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>202</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>272</v>
+      </c>
+      <c r="D220" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>203</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>272</v>
+      </c>
+      <c r="D221" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>204</v>
+      </c>
+      <c r="B222" t="s">
+        <v>205</v>
+      </c>
+      <c r="C222" t="s">
+        <v>272</v>
+      </c>
+      <c r="D222" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>206</v>
+      </c>
+      <c r="C223" t="s">
+        <v>272</v>
+      </c>
+      <c r="D223" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>207</v>
+      </c>
+      <c r="B224" t="s">
+        <v>68</v>
+      </c>
+      <c r="C224" t="s">
+        <v>272</v>
+      </c>
+      <c r="D224" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>208</v>
+      </c>
+      <c r="B225" t="s">
+        <v>68</v>
+      </c>
+      <c r="C225" t="s">
+        <v>272</v>
+      </c>
+      <c r="D225" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>209</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>272</v>
+      </c>
+      <c r="D226" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>210</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>272</v>
+      </c>
+      <c r="D227" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>211</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>272</v>
+      </c>
+      <c r="D228" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>212</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>272</v>
+      </c>
+      <c r="D229" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>213</v>
+      </c>
+      <c r="B230" t="s">
+        <v>214</v>
+      </c>
+      <c r="C230" t="s">
+        <v>272</v>
+      </c>
+      <c r="D230" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>215</v>
+      </c>
+      <c r="C231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D231" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>216</v>
+      </c>
+      <c r="B232" t="s">
+        <v>214</v>
+      </c>
+      <c r="C232" t="s">
+        <v>272</v>
+      </c>
+      <c r="D232" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>217</v>
+      </c>
+      <c r="B233" t="s">
+        <v>205</v>
+      </c>
+      <c r="C233" t="s">
+        <v>272</v>
+      </c>
+      <c r="D233" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>218</v>
+      </c>
+      <c r="B234" t="s">
+        <v>205</v>
+      </c>
+      <c r="C234" t="s">
+        <v>272</v>
+      </c>
+      <c r="D234" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>219</v>
+      </c>
+      <c r="B235" t="s">
+        <v>205</v>
+      </c>
+      <c r="C235" t="s">
+        <v>272</v>
+      </c>
+      <c r="D235" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>220</v>
+      </c>
+      <c r="B236" t="s">
+        <v>94</v>
+      </c>
+      <c r="C236" t="s">
+        <v>272</v>
+      </c>
+      <c r="D236" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>221</v>
+      </c>
+      <c r="B237" t="s">
+        <v>94</v>
+      </c>
+      <c r="C237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D237" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>222</v>
+      </c>
+      <c r="B238" t="s">
+        <v>223</v>
+      </c>
+      <c r="C238" t="s">
+        <v>272</v>
+      </c>
+      <c r="D238" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>224</v>
+      </c>
+      <c r="B239" t="s">
+        <v>225</v>
+      </c>
+      <c r="C239" t="s">
+        <v>272</v>
+      </c>
+      <c r="D239" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>226</v>
+      </c>
+      <c r="C240" t="s">
+        <v>274</v>
+      </c>
+      <c r="D240" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>227</v>
+      </c>
+      <c r="B241" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241" t="s">
+        <v>272</v>
+      </c>
+      <c r="D241" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>228</v>
+      </c>
+      <c r="B242" t="s">
+        <v>229</v>
+      </c>
+      <c r="C242" t="s">
+        <v>272</v>
+      </c>
+      <c r="D242" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>230</v>
+      </c>
+      <c r="B243" t="s">
+        <v>33</v>
+      </c>
+      <c r="C243" t="s">
+        <v>272</v>
+      </c>
+      <c r="D243" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>231</v>
+      </c>
+      <c r="B244" t="s">
+        <v>232</v>
+      </c>
+      <c r="C244" t="s">
+        <v>272</v>
+      </c>
+      <c r="D244" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>233</v>
+      </c>
+      <c r="B245" t="s">
+        <v>232</v>
+      </c>
+      <c r="C245" t="s">
+        <v>272</v>
+      </c>
+      <c r="D245" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>234</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B246" t="s">
         <v>214</v>
       </c>
-      <c r="C201" t="s">
-        <v>272</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="C246" t="s">
+        <v>272</v>
+      </c>
+      <c r="D246" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5886,7 +6916,7 @@
         <v>297</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5903,7 +6933,7 @@
         <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5920,7 +6950,7 @@
         <v>374</v>
       </c>
       <c r="F5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5937,7 +6967,7 @@
         <v>377</v>
       </c>
       <c r="F6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5954,10 +6984,10 @@
         <v>359</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5974,7 +7004,7 @@
         <v>396</v>
       </c>
       <c r="F8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5991,7 +7021,7 @@
         <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6008,7 +7038,7 @@
         <v>398</v>
       </c>
       <c r="F10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,7 +7055,7 @@
         <v>517</v>
       </c>
       <c r="F11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6042,7 +7072,7 @@
         <v>516</v>
       </c>
       <c r="F12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,7 +7089,7 @@
         <v>376</v>
       </c>
       <c r="F13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6076,7 +7106,7 @@
         <v>363</v>
       </c>
       <c r="F14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,7 +7123,7 @@
         <v>397</v>
       </c>
       <c r="F15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -6336,7 +7366,7 @@
         <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/doc/data_tables.xlsx
+++ b/doc/data_tables.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Flux" sheetId="2" r:id="rId2"/>
     <sheet name="diagnostic" sheetId="5" r:id="rId3"/>
     <sheet name="LTAR_Met" sheetId="6" r:id="rId4"/>
-    <sheet name="Time_Series" sheetId="4" r:id="rId5"/>
+    <sheet name="LTAR_Met_1Minute" sheetId="8" r:id="rId5"/>
+    <sheet name="Time_Series" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="681">
   <si>
     <t>Data Table Definitions</t>
   </si>
@@ -1749,9 +1750,6 @@
     <t>Average ambient pressure, calculated using pre-EasyFlux processing model</t>
   </si>
   <si>
-    <t>Deprecated</t>
-  </si>
-  <si>
     <t>New column</t>
   </si>
   <si>
@@ -1842,36 +1840,21 @@
     <t>Tsoil_Avg</t>
   </si>
   <si>
-    <t>tdr315_wc_Avg(1)</t>
-  </si>
-  <si>
     <t>tdr315_wc_Avg(2)</t>
   </si>
   <si>
-    <t>tdr315_tmpr_Avg(1)</t>
-  </si>
-  <si>
     <t>tdr315_tmpr_Avg(2)</t>
   </si>
   <si>
-    <t>tdr315_E_Avg(1)</t>
-  </si>
-  <si>
     <t>tdr315_E_Avg(2)</t>
   </si>
   <si>
-    <t>tdr315_bulkEC_Avg(1)</t>
-  </si>
-  <si>
     <t>uS/cm</t>
   </si>
   <si>
     <t>tdr315_bulkEC_Avg(2)</t>
   </si>
   <si>
-    <t>tdr315_poreEC_Avg(1)</t>
-  </si>
-  <si>
     <t>tdr315_poreEC_Avg(2)</t>
   </si>
   <si>
@@ -1950,96 +1933,6 @@
     <t>Sequential record counter value (skips indicate missing data)</t>
   </si>
   <si>
-    <t>profile_tdr315_wc_Avg(1)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_wc_Avg(2)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_wc_Avg(3)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_wc_Avg(4)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_wc_Avg(5)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_wc_Avg(6)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_tmpr_Avg(1)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_tmpr_Avg(2)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_tmpr_Avg(3)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_tmpr_Avg(4)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_tmpr_Avg(5)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_tmpr_Avg(6)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_E_Avg(1)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_E_Avg(2)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_E_Avg(3)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_E_Avg(4)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_E_Avg(5)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_E_Avg(6)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_bulkEC_Avg(1)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_bulkEC_Avg(2)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_bulkEC_Avg(3)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_bulkEC_Avg(4)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_bulkEC_Avg(5)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_bulkEC_Avg(6)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_poreEC_Avg(1)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_poreEC_Avg(2)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_poreEC_Avg(3)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_poreEC_Avg(4)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_poreEC_Avg(5)</t>
-  </si>
-  <si>
-    <t>profile_tdr315_poreEC_Avg(6)</t>
-  </si>
-  <si>
     <t>Average volumetric water content for profile TDR sensor in first position</t>
   </si>
   <si>
@@ -2128,13 +2021,154 @@
   </si>
   <si>
     <t>Average soil pore water electrical conductivity for profile TDR sensor in sixth position</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>tdr31X_wc_Avg</t>
+  </si>
+  <si>
+    <t>tdr31X_tmpr_Avg</t>
+  </si>
+  <si>
+    <t>tdr31X_E_Avg</t>
+  </si>
+  <si>
+    <t>tdr31X_bulkEC_Avg</t>
+  </si>
+  <si>
+    <t>tdr31X_poreEC_Avg</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_wc_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_wc_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_wc_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_wc_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_wc_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_wc_Avg(6)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_tmpr_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_tmpr_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_tmpr_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_tmpr_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_tmpr_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_tmpr_Avg(6)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_E_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_E_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_E_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_E_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_E_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_E_Avg(6)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_bulkEC_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_bulkEC_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_bulkEC_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_bulkEC_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_bulkEC_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_bulkEC_Avg(6)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_poreEC_Avg(1)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_poreEC_Avg(2)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_poreEC_Avg(3)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_poreEC_Avg(4)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_poreEC_Avg(5)</t>
+  </si>
+  <si>
+    <t>profile_tdr31X_poreEC_Avg(6)</t>
+  </si>
+  <si>
+    <t>Renamed</t>
+  </si>
+  <si>
+    <t>e_sat</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>1 MIN</t>
+  </si>
+  <si>
+    <t>LTAR_Met_1Minute</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>Average saturation vapor pressure derived from gas analyzer measurements</t>
+  </si>
+  <si>
+    <t>Average vapor pressure derived from gas analyzer measurements</t>
+  </si>
+  <si>
+    <t>Is 1-min average, not sample</t>
+  </si>
+  <si>
+    <t>New column, is 15-min average, not sample</t>
+  </si>
+  <si>
+    <t>New table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2206,8 +2240,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2222,6 +2271,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2320,15 +2374,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2348,8 +2403,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -2633,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,149 +2754,158 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>550</v>
-      </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>295</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B23" t="s">
-        <v>604</v>
-      </c>
-      <c r="C23" t="s">
-        <v>607</v>
+      <c r="A23" s="3" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="B24" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C24" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C25" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>302</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>274</v>
-      </c>
-      <c r="C27" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>273</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2846,13 +2913,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
+      <selection pane="bottomRight" activeCell="C97" sqref="C97:D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,6 +2928,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2897,221 +2965,222 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>543</v>
+      <c r="E4" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>543</v>
+      <c r="E5" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>543</v>
+      <c r="E6" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>543</v>
+      <c r="E7" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>543</v>
+      <c r="E8" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>543</v>
+      <c r="E9" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>543</v>
+      <c r="E10" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>543</v>
+      <c r="E11" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>543</v>
+      <c r="E12" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>543</v>
+      <c r="E13" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>543</v>
+      <c r="E14" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>543</v>
+      <c r="E15" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>543</v>
+      <c r="E16" s="20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,7 +3339,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -3279,21 +3348,21 @@
         <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B29" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C29" t="s">
         <v>272</v>
       </c>
       <c r="D29" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3391,7 +3460,7 @@
         <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3956,16 +4025,16 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>563</v>
+      </c>
+      <c r="B77" t="s">
         <v>564</v>
-      </c>
-      <c r="B77" t="s">
-        <v>565</v>
       </c>
       <c r="C77" t="s">
         <v>274</v>
       </c>
       <c r="D77" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3984,13 +4053,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>565</v>
+      </c>
+      <c r="B79" t="s">
         <v>566</v>
       </c>
-      <c r="B79" t="s">
-        <v>567</v>
-      </c>
       <c r="D79" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,7 +4076,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -4021,7 +4090,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -4035,7 +4104,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -4049,9 +4118,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
@@ -4060,40 +4129,52 @@
         <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>574</v>
-      </c>
-      <c r="B85" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C85" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>575</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C85" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="G85" t="s">
+        <v>635</v>
+      </c>
+      <c r="H85" t="s">
         <v>53</v>
       </c>
-      <c r="C86" t="s">
-        <v>272</v>
-      </c>
-      <c r="D86" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>576</v>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>636</v>
       </c>
       <c r="B87" t="s">
         <v>24</v>
@@ -4102,26 +4183,38 @@
         <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>577</v>
-      </c>
-      <c r="B88" t="s">
+        <v>582</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="G87" t="s">
+        <v>636</v>
+      </c>
+      <c r="H87" t="s">
         <v>24</v>
       </c>
-      <c r="C88" t="s">
-        <v>272</v>
-      </c>
-      <c r="D88" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>578</v>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>637</v>
       </c>
       <c r="B89" t="s">
         <v>205</v>
@@ -4130,82 +4223,118 @@
         <v>272</v>
       </c>
       <c r="D89" t="s">
+        <v>585</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="G89" t="s">
+        <v>637</v>
+      </c>
+      <c r="H89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="B91" t="s">
+        <v>576</v>
+      </c>
+      <c r="C91" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" t="s">
+        <v>592</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="G91" t="s">
+        <v>638</v>
+      </c>
+      <c r="H91" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="E92" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B93" t="s">
+        <v>576</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" t="s">
+        <v>589</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="G93" t="s">
+        <v>639</v>
+      </c>
+      <c r="H93" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>579</v>
-      </c>
-      <c r="B90" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" t="s">
-        <v>272</v>
-      </c>
-      <c r="D90" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>580</v>
-      </c>
-      <c r="B91" t="s">
-        <v>581</v>
-      </c>
-      <c r="C91" t="s">
-        <v>272</v>
-      </c>
-      <c r="D91" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>582</v>
-      </c>
-      <c r="B92" t="s">
-        <v>581</v>
-      </c>
-      <c r="C92" t="s">
-        <v>272</v>
-      </c>
-      <c r="D92" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>583</v>
-      </c>
-      <c r="B93" t="s">
-        <v>581</v>
-      </c>
-      <c r="C93" t="s">
-        <v>272</v>
-      </c>
-      <c r="D93" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>584</v>
-      </c>
-      <c r="B94" t="s">
-        <v>581</v>
-      </c>
-      <c r="C94" t="s">
-        <v>272</v>
-      </c>
-      <c r="D94" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>585</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -4214,26 +4343,26 @@
         <v>272</v>
       </c>
       <c r="D95" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B96" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C96" t="s">
         <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>610</v>
+      <c r="A97" s="17" t="s">
+        <v>640</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
@@ -4242,15 +4371,15 @@
         <v>272</v>
       </c>
       <c r="D97" t="s">
-        <v>640</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>544</v>
+        <v>604</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>611</v>
+      <c r="A98" s="17" t="s">
+        <v>641</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
@@ -4259,15 +4388,15 @@
         <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>641</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>544</v>
+        <v>605</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>612</v>
+      <c r="A99" s="17" t="s">
+        <v>642</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
@@ -4276,15 +4405,15 @@
         <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>642</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>544</v>
+        <v>606</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>613</v>
+      <c r="A100" s="17" t="s">
+        <v>643</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
@@ -4293,15 +4422,15 @@
         <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>643</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>544</v>
+        <v>607</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>614</v>
+      <c r="A101" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="B101" t="s">
         <v>53</v>
@@ -4310,15 +4439,15 @@
         <v>272</v>
       </c>
       <c r="D101" t="s">
-        <v>644</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>544</v>
+        <v>608</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>615</v>
+      <c r="A102" s="17" t="s">
+        <v>645</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
@@ -4327,15 +4456,15 @@
         <v>272</v>
       </c>
       <c r="D102" t="s">
-        <v>645</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>544</v>
+        <v>609</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>616</v>
+      <c r="A103" s="17" t="s">
+        <v>646</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
@@ -4344,15 +4473,15 @@
         <v>272</v>
       </c>
       <c r="D103" t="s">
-        <v>646</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>544</v>
+        <v>610</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>617</v>
+      <c r="A104" s="17" t="s">
+        <v>647</v>
       </c>
       <c r="B104" t="s">
         <v>24</v>
@@ -4361,15 +4490,15 @@
         <v>272</v>
       </c>
       <c r="D104" t="s">
-        <v>647</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>544</v>
+        <v>611</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>618</v>
+      <c r="A105" s="17" t="s">
+        <v>648</v>
       </c>
       <c r="B105" t="s">
         <v>24</v>
@@ -4378,15 +4507,15 @@
         <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>648</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>544</v>
+        <v>612</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>619</v>
+      <c r="A106" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="B106" t="s">
         <v>24</v>
@@ -4395,15 +4524,15 @@
         <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>649</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>544</v>
+        <v>613</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>620</v>
+      <c r="A107" s="17" t="s">
+        <v>650</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
@@ -4412,15 +4541,15 @@
         <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>650</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>544</v>
+        <v>614</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>621</v>
+      <c r="A108" s="17" t="s">
+        <v>651</v>
       </c>
       <c r="B108" t="s">
         <v>24</v>
@@ -4429,15 +4558,15 @@
         <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>651</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>544</v>
+        <v>615</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>622</v>
+      <c r="A109" s="17" t="s">
+        <v>652</v>
       </c>
       <c r="B109" t="s">
         <v>205</v>
@@ -4446,15 +4575,15 @@
         <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>652</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>544</v>
+        <v>616</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>623</v>
+      <c r="A110" s="17" t="s">
+        <v>653</v>
       </c>
       <c r="B110" t="s">
         <v>205</v>
@@ -4463,15 +4592,15 @@
         <v>272</v>
       </c>
       <c r="D110" t="s">
-        <v>653</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>544</v>
+        <v>617</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>624</v>
+      <c r="A111" s="17" t="s">
+        <v>654</v>
       </c>
       <c r="B111" t="s">
         <v>205</v>
@@ -4480,15 +4609,15 @@
         <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>654</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>544</v>
+        <v>618</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>625</v>
+      <c r="A112" s="17" t="s">
+        <v>655</v>
       </c>
       <c r="B112" t="s">
         <v>205</v>
@@ -4497,15 +4626,15 @@
         <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>655</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>544</v>
+        <v>619</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>626</v>
+      <c r="A113" s="17" t="s">
+        <v>656</v>
       </c>
       <c r="B113" t="s">
         <v>205</v>
@@ -4514,15 +4643,15 @@
         <v>272</v>
       </c>
       <c r="D113" t="s">
-        <v>656</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>544</v>
+        <v>620</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>627</v>
+      <c r="A114" s="17" t="s">
+        <v>657</v>
       </c>
       <c r="B114" t="s">
         <v>205</v>
@@ -4531,214 +4660,214 @@
         <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>657</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>544</v>
+        <v>621</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B115" t="s">
+        <v>576</v>
+      </c>
+      <c r="C115" t="s">
+        <v>272</v>
+      </c>
+      <c r="D115" t="s">
+        <v>622</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="B116" t="s">
+        <v>576</v>
+      </c>
+      <c r="C116" t="s">
+        <v>272</v>
+      </c>
+      <c r="D116" t="s">
+        <v>623</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="B117" t="s">
+        <v>576</v>
+      </c>
+      <c r="C117" t="s">
+        <v>272</v>
+      </c>
+      <c r="D117" t="s">
+        <v>624</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="B118" t="s">
+        <v>576</v>
+      </c>
+      <c r="C118" t="s">
+        <v>272</v>
+      </c>
+      <c r="D118" t="s">
+        <v>625</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="B119" t="s">
+        <v>576</v>
+      </c>
+      <c r="C119" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" t="s">
+        <v>626</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="B120" t="s">
+        <v>576</v>
+      </c>
+      <c r="C120" t="s">
+        <v>272</v>
+      </c>
+      <c r="D120" t="s">
+        <v>627</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="B121" t="s">
+        <v>576</v>
+      </c>
+      <c r="C121" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" t="s">
         <v>628</v>
       </c>
-      <c r="B115" t="s">
-        <v>581</v>
-      </c>
-      <c r="C115" t="s">
-        <v>272</v>
-      </c>
-      <c r="D115" t="s">
-        <v>658</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="E121" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="B122" t="s">
+        <v>576</v>
+      </c>
+      <c r="C122" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" t="s">
         <v>629</v>
       </c>
-      <c r="B116" t="s">
-        <v>581</v>
-      </c>
-      <c r="C116" t="s">
-        <v>272</v>
-      </c>
-      <c r="D116" t="s">
-        <v>659</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="E122" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="B123" t="s">
+        <v>576</v>
+      </c>
+      <c r="C123" t="s">
+        <v>272</v>
+      </c>
+      <c r="D123" t="s">
         <v>630</v>
       </c>
-      <c r="B117" t="s">
-        <v>581</v>
-      </c>
-      <c r="C117" t="s">
-        <v>272</v>
-      </c>
-      <c r="D117" t="s">
-        <v>660</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="E123" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="B124" t="s">
+        <v>576</v>
+      </c>
+      <c r="C124" t="s">
+        <v>272</v>
+      </c>
+      <c r="D124" t="s">
         <v>631</v>
       </c>
-      <c r="B118" t="s">
-        <v>581</v>
-      </c>
-      <c r="C118" t="s">
-        <v>272</v>
-      </c>
-      <c r="D118" t="s">
-        <v>661</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="E124" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B125" t="s">
+        <v>576</v>
+      </c>
+      <c r="C125" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" t="s">
         <v>632</v>
       </c>
-      <c r="B119" t="s">
-        <v>581</v>
-      </c>
-      <c r="C119" t="s">
-        <v>272</v>
-      </c>
-      <c r="D119" t="s">
-        <v>662</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="E125" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="B126" t="s">
+        <v>576</v>
+      </c>
+      <c r="C126" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" t="s">
         <v>633</v>
       </c>
-      <c r="B120" t="s">
-        <v>581</v>
-      </c>
-      <c r="C120" t="s">
-        <v>272</v>
-      </c>
-      <c r="D120" t="s">
-        <v>663</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>634</v>
-      </c>
-      <c r="B121" t="s">
-        <v>581</v>
-      </c>
-      <c r="C121" t="s">
-        <v>272</v>
-      </c>
-      <c r="D121" t="s">
-        <v>664</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>635</v>
-      </c>
-      <c r="B122" t="s">
-        <v>581</v>
-      </c>
-      <c r="C122" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" t="s">
-        <v>665</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>636</v>
-      </c>
-      <c r="B123" t="s">
-        <v>581</v>
-      </c>
-      <c r="C123" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" t="s">
-        <v>666</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>637</v>
-      </c>
-      <c r="B124" t="s">
-        <v>581</v>
-      </c>
-      <c r="C124" t="s">
-        <v>272</v>
-      </c>
-      <c r="D124" t="s">
-        <v>667</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>638</v>
-      </c>
-      <c r="B125" t="s">
-        <v>581</v>
-      </c>
-      <c r="C125" t="s">
-        <v>272</v>
-      </c>
-      <c r="D125" t="s">
-        <v>668</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>639</v>
-      </c>
-      <c r="B126" t="s">
-        <v>581</v>
-      </c>
-      <c r="C126" t="s">
-        <v>272</v>
-      </c>
-      <c r="D126" t="s">
-        <v>669</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>544</v>
+      <c r="E126" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -6866,13 +6995,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6888,7 +7017,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6896,7 +7025,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6916,7 +7045,7 @@
         <v>297</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6933,7 +7062,7 @@
         <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6950,7 +7079,7 @@
         <v>374</v>
       </c>
       <c r="F5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6967,7 +7096,7 @@
         <v>377</v>
       </c>
       <c r="F6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6984,10 +7113,10 @@
         <v>359</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7004,7 +7133,7 @@
         <v>396</v>
       </c>
       <c r="F8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7021,7 +7150,7 @@
         <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7038,7 +7167,7 @@
         <v>398</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7055,7 +7184,7 @@
         <v>517</v>
       </c>
       <c r="F11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7072,7 +7201,7 @@
         <v>516</v>
       </c>
       <c r="F12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7089,7 +7218,7 @@
         <v>376</v>
       </c>
       <c r="F13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7106,7 +7235,7 @@
         <v>363</v>
       </c>
       <c r="F14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7123,7 +7252,687 @@
         <v>397</v>
       </c>
       <c r="F15" t="s">
-        <v>563</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>671</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" t="s">
+        <v>676</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>672</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" t="s">
+        <v>677</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>636</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>582</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>637</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>585</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>638</v>
+      </c>
+      <c r="B21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>592</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>639</v>
+      </c>
+      <c r="B22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" t="s">
+        <v>589</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>640</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" t="s">
+        <v>606</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>643</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" t="s">
+        <v>607</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>644</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" t="s">
+        <v>608</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>645</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" t="s">
+        <v>609</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>646</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" t="s">
+        <v>610</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>647</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" t="s">
+        <v>611</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>648</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" t="s">
+        <v>612</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>649</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" t="s">
+        <v>613</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>650</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" t="s">
+        <v>614</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>651</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" t="s">
+        <v>615</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>652</v>
+      </c>
+      <c r="B36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" t="s">
+        <v>616</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>653</v>
+      </c>
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" t="s">
+        <v>617</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>654</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>655</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" t="s">
+        <v>619</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>656</v>
+      </c>
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>620</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>657</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" t="s">
+        <v>621</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>658</v>
+      </c>
+      <c r="B42" t="s">
+        <v>576</v>
+      </c>
+      <c r="C42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" t="s">
+        <v>622</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>659</v>
+      </c>
+      <c r="B43" t="s">
+        <v>576</v>
+      </c>
+      <c r="C43" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" t="s">
+        <v>623</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>660</v>
+      </c>
+      <c r="B44" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" t="s">
+        <v>624</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>661</v>
+      </c>
+      <c r="B45" t="s">
+        <v>576</v>
+      </c>
+      <c r="C45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" t="s">
+        <v>625</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>662</v>
+      </c>
+      <c r="B46" t="s">
+        <v>576</v>
+      </c>
+      <c r="C46" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" t="s">
+        <v>626</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>663</v>
+      </c>
+      <c r="B47" t="s">
+        <v>576</v>
+      </c>
+      <c r="C47" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" t="s">
+        <v>627</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>664</v>
+      </c>
+      <c r="B48" t="s">
+        <v>576</v>
+      </c>
+      <c r="C48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" t="s">
+        <v>628</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>665</v>
+      </c>
+      <c r="B49" t="s">
+        <v>576</v>
+      </c>
+      <c r="C49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" t="s">
+        <v>629</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>666</v>
+      </c>
+      <c r="B50" t="s">
+        <v>576</v>
+      </c>
+      <c r="C50" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" t="s">
+        <v>630</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>667</v>
+      </c>
+      <c r="B51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C51" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" t="s">
+        <v>631</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>668</v>
+      </c>
+      <c r="B52" t="s">
+        <v>576</v>
+      </c>
+      <c r="C52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" t="s">
+        <v>632</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>669</v>
+      </c>
+      <c r="B53" t="s">
+        <v>576</v>
+      </c>
+      <c r="C53" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" t="s">
+        <v>633</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>579</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" t="s">
+        <v>593</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>580</v>
+      </c>
+      <c r="B55" t="s">
+        <v>581</v>
+      </c>
+      <c r="C55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" t="s">
+        <v>594</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -7133,6 +7942,423 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="F7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>671</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" t="s">
+        <v>676</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>672</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" t="s">
+        <v>677</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>636</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>637</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>638</v>
+      </c>
+      <c r="B21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>639</v>
+      </c>
+      <c r="B22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>579</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -7366,7 +8592,7 @@
         <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
